--- a/src/output/results5.xlsx
+++ b/src/output/results5.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -346,498 +346,1056 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4998.0</v>
+        <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1177.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5116.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1231.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4577.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1393.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4017.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1972.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3804.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1962.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3509.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1882.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3160.0</v>
+        <v>9.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1636.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3102.0</v>
+        <v>13.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1534.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2915.0</v>
+        <v>17.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1516.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2826.0</v>
+        <v>23.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1402.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2817.0</v>
+        <v>36.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1396.0</v>
+        <v>36.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2809.0</v>
+        <v>42.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1306.0</v>
+        <v>41.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2627.0</v>
+        <v>51.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1259.0</v>
+        <v>49.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2750.0</v>
+        <v>64.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1213.0</v>
+        <v>62.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2700.0</v>
+        <v>76.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1224.0</v>
+        <v>73.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2626.0</v>
+        <v>100.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1128.0</v>
+        <v>92.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2598.0</v>
+        <v>114.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1097.0</v>
+        <v>104.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2554.0</v>
+        <v>144.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1165.0</v>
+        <v>132.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2536.0</v>
+        <v>179.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1112.0</v>
+        <v>155.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2632.0</v>
+        <v>220.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1153.0</v>
+        <v>188.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2565.0</v>
+        <v>265.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1124.0</v>
+        <v>232.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2578.0</v>
+        <v>314.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1098.0</v>
+        <v>273.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2491.0</v>
+        <v>356.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1112.0</v>
+        <v>306.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2573.0</v>
+        <v>404.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1015.0</v>
+        <v>337.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2572.0</v>
+        <v>456.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1079.0</v>
+        <v>381.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2586.0</v>
+        <v>499.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1109.0</v>
+        <v>411.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2663.0</v>
+        <v>552.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1074.0</v>
+        <v>444.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2515.0</v>
+        <v>618.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1100.0</v>
+        <v>495.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2584.0</v>
+        <v>668.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1063.0</v>
+        <v>514.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2594.0</v>
+        <v>738.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1130.0</v>
+        <v>557.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>179.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2499.0</v>
+        <v>807.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1045.0</v>
+        <v>603.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>202.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3207.0</v>
+        <v>886.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1074.0</v>
+        <v>643.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>240.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3356.0</v>
+        <v>971.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1100.0</v>
+        <v>692.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>276.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3025.0</v>
+        <v>1063.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1139.0</v>
+        <v>744.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>315.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3196.0</v>
+        <v>1145.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1328.0</v>
+        <v>778.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>363.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4357.0</v>
+        <v>1226.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1317.0</v>
+        <v>815.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>407.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4181.0</v>
+        <v>1343.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1361.0</v>
+        <v>876.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>462.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4613.0</v>
+        <v>1484.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1534.0</v>
+        <v>973.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>504.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5171.0</v>
+        <v>1637.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1769.0</v>
+        <v>1070.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>558.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5561.0</v>
+        <v>1830.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1880.0</v>
+        <v>1203.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>616.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5163.0</v>
+        <v>2027.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2055.0</v>
+        <v>1339.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>675.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4879.0</v>
+        <v>2243.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2203.0</v>
+        <v>1492.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>736.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7103.0</v>
+        <v>2472.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2433.0</v>
+        <v>1641.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>815.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6413.0</v>
+        <v>2746.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2271.0</v>
+        <v>1824.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>905.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7053.0</v>
+        <v>3021.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2436.0</v>
+        <v>2021.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>982.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7858.0</v>
+        <v>3330.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2842.0</v>
+        <v>2230.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1082.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8573.0</v>
+        <v>3681.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2964.0</v>
+        <v>2477.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1186.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7488.0</v>
+        <v>4086.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3130.0</v>
+        <v>2760.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1305.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7150.0</v>
+        <v>4487.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3498.0</v>
+        <v>3014.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1447.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10143.0</v>
+        <v>4954.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3720.0</v>
+        <v>3332.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1592.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9118.0</v>
+        <v>5454.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3484.0</v>
+        <v>3682.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1738.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9539.0</v>
+        <v>5952.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3669.0</v>
+        <v>3986.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>498.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1927.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10654.0</v>
+        <v>6539.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4223.0</v>
+        <v>4363.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>587.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2133.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11215.0</v>
+        <v>7126.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4175.0</v>
+        <v>4741.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>587.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2339.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9877.0</v>
+        <v>7748.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4314.0</v>
+        <v>5108.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>622.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2592.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9207.0</v>
+        <v>8425.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4890.0</v>
+        <v>5502.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>677.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2869.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12895.0</v>
+        <v>9115.0</v>
       </c>
       <c r="B57" t="n">
-        <v>5003.0</v>
+        <v>5887.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3170.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11409.0</v>
+        <v>9830.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4602.0</v>
+        <v>6260.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>715.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3508.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12318.0</v>
+        <v>10619.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4911.0</v>
+        <v>6725.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>789.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3830.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13121.0</v>
+        <v>11504.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5320.0</v>
+        <v>7210.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>885.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4227.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14108.0</v>
+        <v>12424.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5280.0</v>
+        <v>7699.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>920.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4652.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12145.0</v>
+        <v>13389.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5531.0</v>
+        <v>8249.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>965.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5062.0</v>
       </c>
     </row>
     <row r="63">

--- a/src/output/results5.xlsx
+++ b/src/output/results5.xlsx
@@ -346,10 +346,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="C1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.0</v>
+        <v>105.0</v>
       </c>
       <c r="B6" t="n">
-        <v>4.0</v>
+        <v>105.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.0</v>
+        <v>112.0</v>
       </c>
       <c r="B7" t="n">
-        <v>12.0</v>
+        <v>112.0</v>
       </c>
       <c r="C7" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16.0</v>
+        <v>126.0</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0</v>
+        <v>126.0</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -482,920 +482,920 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23.0</v>
+        <v>143.0</v>
       </c>
       <c r="B9" t="n">
-        <v>23.0</v>
+        <v>142.0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32.0</v>
+        <v>155.0</v>
       </c>
       <c r="B10" t="n">
-        <v>32.0</v>
+        <v>154.0</v>
       </c>
       <c r="C10" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36.0</v>
+        <v>165.0</v>
       </c>
       <c r="B11" t="n">
-        <v>36.0</v>
+        <v>164.0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>42.0</v>
+        <v>182.0</v>
       </c>
       <c r="B12" t="n">
-        <v>42.0</v>
+        <v>178.0</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>48.0</v>
+        <v>202.0</v>
       </c>
       <c r="B13" t="n">
-        <v>47.0</v>
+        <v>195.0</v>
       </c>
       <c r="C13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n">
         <v>6.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>55.0</v>
+        <v>220.0</v>
       </c>
       <c r="B14" t="n">
-        <v>53.0</v>
+        <v>207.0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66.0</v>
+        <v>245.0</v>
       </c>
       <c r="B15" t="n">
-        <v>63.0</v>
+        <v>229.0</v>
       </c>
       <c r="C15" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E15" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>81.0</v>
+        <v>268.0</v>
       </c>
       <c r="B16" t="n">
-        <v>72.0</v>
+        <v>250.0</v>
       </c>
       <c r="C16" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>102.0</v>
+        <v>292.0</v>
       </c>
       <c r="B17" t="n">
-        <v>91.0</v>
+        <v>272.0</v>
       </c>
       <c r="C17" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>117.0</v>
+        <v>317.0</v>
       </c>
       <c r="B18" t="n">
-        <v>101.0</v>
+        <v>289.0</v>
       </c>
       <c r="C18" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>140.0</v>
+        <v>341.0</v>
       </c>
       <c r="B19" t="n">
-        <v>121.0</v>
+        <v>306.0</v>
       </c>
       <c r="C19" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="D19" t="n">
         <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>161.0</v>
+        <v>364.0</v>
       </c>
       <c r="B20" t="n">
-        <v>133.0</v>
+        <v>320.0</v>
       </c>
       <c r="C20" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>189.0</v>
+        <v>383.0</v>
       </c>
       <c r="B21" t="n">
-        <v>156.0</v>
+        <v>326.0</v>
       </c>
       <c r="C21" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>31.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>205.0</v>
+        <v>413.0</v>
       </c>
       <c r="B22" t="n">
-        <v>166.0</v>
+        <v>349.0</v>
       </c>
       <c r="C22" t="n">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>37.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>224.0</v>
+        <v>455.0</v>
       </c>
       <c r="B23" t="n">
-        <v>177.0</v>
+        <v>380.0</v>
       </c>
       <c r="C23" t="n">
-        <v>19.0</v>
+        <v>42.0</v>
       </c>
       <c r="D23" t="n">
         <v>2.0</v>
       </c>
       <c r="E23" t="n">
-        <v>45.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>240.0</v>
+        <v>493.0</v>
       </c>
       <c r="B24" t="n">
-        <v>184.0</v>
+        <v>396.0</v>
       </c>
       <c r="C24" t="n">
-        <v>16.0</v>
+        <v>38.0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E24" t="n">
-        <v>54.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>267.0</v>
+        <v>538.0</v>
       </c>
       <c r="B25" t="n">
-        <v>204.0</v>
+        <v>428.0</v>
       </c>
       <c r="C25" t="n">
-        <v>27.0</v>
+        <v>45.0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" t="n">
-        <v>61.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>285.0</v>
+        <v>592.0</v>
       </c>
       <c r="B26" t="n">
-        <v>206.0</v>
+        <v>466.0</v>
       </c>
       <c r="C26" t="n">
-        <v>18.0</v>
+        <v>54.0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>77.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>303.0</v>
+        <v>644.0</v>
       </c>
       <c r="B27" t="n">
-        <v>213.0</v>
+        <v>494.0</v>
       </c>
       <c r="C27" t="n">
-        <v>18.0</v>
+        <v>52.0</v>
       </c>
       <c r="D27" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E27" t="n">
-        <v>87.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>331.0</v>
+        <v>695.0</v>
       </c>
       <c r="B28" t="n">
-        <v>232.0</v>
+        <v>529.0</v>
       </c>
       <c r="C28" t="n">
-        <v>28.0</v>
+        <v>51.0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E28" t="n">
-        <v>96.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>359.0</v>
+        <v>745.0</v>
       </c>
       <c r="B29" t="n">
-        <v>238.0</v>
+        <v>553.0</v>
       </c>
       <c r="C29" t="n">
-        <v>28.0</v>
+        <v>50.0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E29" t="n">
-        <v>118.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>373.0</v>
+        <v>806.0</v>
       </c>
       <c r="B30" t="n">
-        <v>232.0</v>
+        <v>593.0</v>
       </c>
       <c r="C30" t="n">
-        <v>14.0</v>
+        <v>61.0</v>
       </c>
       <c r="D30" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E30" t="n">
-        <v>138.0</v>
+        <v>206.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>403.0</v>
+        <v>862.0</v>
       </c>
       <c r="B31" t="n">
-        <v>244.0</v>
+        <v>617.0</v>
       </c>
       <c r="C31" t="n">
-        <v>30.0</v>
+        <v>56.0</v>
       </c>
       <c r="D31" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E31" t="n">
-        <v>156.0</v>
+        <v>238.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>433.0</v>
+        <v>948.0</v>
       </c>
       <c r="B32" t="n">
+        <v>689.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E32" t="n">
         <v>252.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>178.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>454.0</v>
+        <v>1025.0</v>
       </c>
       <c r="B33" t="n">
-        <v>252.0</v>
+        <v>738.0</v>
       </c>
       <c r="C33" t="n">
-        <v>21.0</v>
+        <v>77.0</v>
       </c>
       <c r="D33" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E33" t="n">
-        <v>199.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>489.0</v>
+        <v>1108.0</v>
       </c>
       <c r="B34" t="n">
-        <v>265.0</v>
+        <v>785.0</v>
       </c>
       <c r="C34" t="n">
-        <v>35.0</v>
+        <v>83.0</v>
       </c>
       <c r="D34" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E34" t="n">
-        <v>221.0</v>
+        <v>316.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>510.0</v>
+        <v>1211.0</v>
       </c>
       <c r="B35" t="n">
-        <v>259.0</v>
+        <v>854.0</v>
       </c>
       <c r="C35" t="n">
-        <v>21.0</v>
+        <v>103.0</v>
       </c>
       <c r="D35" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="E35" t="n">
-        <v>248.0</v>
+        <v>349.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>541.0</v>
+        <v>1322.0</v>
       </c>
       <c r="B36" t="n">
-        <v>271.0</v>
+        <v>924.0</v>
       </c>
       <c r="C36" t="n">
-        <v>31.0</v>
+        <v>111.0</v>
       </c>
       <c r="D36" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E36" t="n">
-        <v>265.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>568.0</v>
+        <v>1434.0</v>
       </c>
       <c r="B37" t="n">
-        <v>284.0</v>
+        <v>993.0</v>
       </c>
       <c r="C37" t="n">
-        <v>27.0</v>
+        <v>112.0</v>
       </c>
       <c r="D37" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E37" t="n">
-        <v>279.0</v>
+        <v>432.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>606.0</v>
+        <v>1565.0</v>
       </c>
       <c r="B38" t="n">
-        <v>293.0</v>
+        <v>1081.0</v>
       </c>
       <c r="C38" t="n">
-        <v>38.0</v>
+        <v>131.0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E38" t="n">
-        <v>308.0</v>
+        <v>475.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>669.0</v>
+        <v>1687.0</v>
       </c>
       <c r="B39" t="n">
-        <v>329.0</v>
+        <v>1159.0</v>
       </c>
       <c r="C39" t="n">
-        <v>63.0</v>
+        <v>122.0</v>
       </c>
       <c r="D39" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="E39" t="n">
-        <v>335.0</v>
+        <v>518.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>734.0</v>
+        <v>1818.0</v>
       </c>
       <c r="B40" t="n">
-        <v>376.0</v>
+        <v>1240.0</v>
       </c>
       <c r="C40" t="n">
-        <v>65.0</v>
+        <v>131.0</v>
       </c>
       <c r="D40" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="E40" t="n">
-        <v>353.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>801.0</v>
+        <v>2007.0</v>
       </c>
       <c r="B41" t="n">
-        <v>426.0</v>
+        <v>1380.0</v>
       </c>
       <c r="C41" t="n">
-        <v>67.0</v>
+        <v>189.0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="E41" t="n">
-        <v>370.0</v>
+        <v>615.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>871.0</v>
+        <v>2200.0</v>
       </c>
       <c r="B42" t="n">
-        <v>477.0</v>
+        <v>1520.0</v>
       </c>
       <c r="C42" t="n">
-        <v>70.0</v>
+        <v>193.0</v>
       </c>
       <c r="D42" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="E42" t="n">
-        <v>389.0</v>
+        <v>668.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>961.0</v>
+        <v>2396.0</v>
       </c>
       <c r="B43" t="n">
-        <v>539.0</v>
+        <v>1638.0</v>
       </c>
       <c r="C43" t="n">
-        <v>90.0</v>
+        <v>196.0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="E43" t="n">
-        <v>417.0</v>
+        <v>745.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1064.0</v>
+        <v>2590.0</v>
       </c>
       <c r="B44" t="n">
-        <v>615.0</v>
+        <v>1766.0</v>
       </c>
       <c r="C44" t="n">
-        <v>103.0</v>
+        <v>194.0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="E44" t="n">
-        <v>443.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1175.0</v>
+        <v>2807.0</v>
       </c>
       <c r="B45" t="n">
-        <v>696.0</v>
+        <v>1894.0</v>
       </c>
       <c r="C45" t="n">
-        <v>111.0</v>
+        <v>217.0</v>
       </c>
       <c r="D45" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="E45" t="n">
-        <v>473.0</v>
+        <v>897.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1295.0</v>
+        <v>3061.0</v>
       </c>
       <c r="B46" t="n">
-        <v>784.0</v>
+        <v>2065.0</v>
       </c>
       <c r="C46" t="n">
-        <v>120.0</v>
+        <v>254.0</v>
       </c>
       <c r="D46" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="E46" t="n">
-        <v>504.0</v>
+        <v>979.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1470.0</v>
+        <v>3358.0</v>
       </c>
       <c r="B47" t="n">
-        <v>929.0</v>
+        <v>2274.0</v>
       </c>
       <c r="C47" t="n">
-        <v>175.0</v>
+        <v>297.0</v>
       </c>
       <c r="D47" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="E47" t="n">
-        <v>534.0</v>
+        <v>1066.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1640.0</v>
+        <v>3637.0</v>
       </c>
       <c r="B48" t="n">
-        <v>1052.0</v>
+        <v>2444.0</v>
       </c>
       <c r="C48" t="n">
-        <v>170.0</v>
+        <v>279.0</v>
       </c>
       <c r="D48" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="E48" t="n">
-        <v>581.0</v>
+        <v>1175.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1830.0</v>
+        <v>3974.0</v>
       </c>
       <c r="B49" t="n">
-        <v>1194.0</v>
+        <v>2672.0</v>
       </c>
       <c r="C49" t="n">
-        <v>190.0</v>
+        <v>337.0</v>
       </c>
       <c r="D49" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="E49" t="n">
-        <v>628.0</v>
+        <v>1282.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2038.0</v>
+        <v>4319.0</v>
       </c>
       <c r="B50" t="n">
-        <v>1353.0</v>
+        <v>2893.0</v>
       </c>
       <c r="C50" t="n">
-        <v>208.0</v>
+        <v>345.0</v>
       </c>
       <c r="D50" t="n">
-        <v>9.0</v>
+        <v>22.0</v>
       </c>
       <c r="E50" t="n">
-        <v>676.0</v>
+        <v>1404.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2297.0</v>
+        <v>4726.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1562.0</v>
+        <v>3151.0</v>
       </c>
       <c r="C51" t="n">
-        <v>259.0</v>
+        <v>407.0</v>
       </c>
       <c r="D51" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="E51" t="n">
-        <v>725.0</v>
+        <v>1553.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2594.0</v>
+        <v>5133.0</v>
       </c>
       <c r="B52" t="n">
-        <v>1792.0</v>
+        <v>3429.0</v>
       </c>
       <c r="C52" t="n">
-        <v>297.0</v>
+        <v>407.0</v>
       </c>
       <c r="D52" t="n">
-        <v>11.0</v>
+        <v>29.0</v>
       </c>
       <c r="E52" t="n">
-        <v>791.0</v>
+        <v>1675.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2907.0</v>
+        <v>5600.0</v>
       </c>
       <c r="B53" t="n">
-        <v>2032.0</v>
+        <v>3742.0</v>
       </c>
       <c r="C53" t="n">
-        <v>313.0</v>
+        <v>467.0</v>
       </c>
       <c r="D53" t="n">
-        <v>11.0</v>
+        <v>31.0</v>
       </c>
       <c r="E53" t="n">
-        <v>864.0</v>
+        <v>1827.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3239.0</v>
+        <v>6037.0</v>
       </c>
       <c r="B54" t="n">
-        <v>2268.0</v>
+        <v>4029.0</v>
       </c>
       <c r="C54" t="n">
-        <v>332.0</v>
+        <v>437.0</v>
       </c>
       <c r="D54" t="n">
-        <v>14.0</v>
+        <v>33.0</v>
       </c>
       <c r="E54" t="n">
-        <v>957.0</v>
+        <v>1975.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3629.0</v>
+        <v>6519.0</v>
       </c>
       <c r="B55" t="n">
-        <v>2543.0</v>
+        <v>4316.0</v>
       </c>
       <c r="C55" t="n">
-        <v>390.0</v>
+        <v>482.0</v>
       </c>
       <c r="D55" t="n">
-        <v>15.0</v>
+        <v>40.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1071.0</v>
+        <v>2163.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4004.0</v>
+        <v>7069.0</v>
       </c>
       <c r="B56" t="n">
-        <v>2804.0</v>
+        <v>4668.0</v>
       </c>
       <c r="C56" t="n">
-        <v>375.0</v>
+        <v>550.0</v>
       </c>
       <c r="D56" t="n">
-        <v>16.0</v>
+        <v>44.0</v>
       </c>
       <c r="E56" t="n">
-        <v>1184.0</v>
+        <v>2357.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4425.0</v>
+        <v>7597.0</v>
       </c>
       <c r="B57" t="n">
-        <v>3119.0</v>
+        <v>4987.0</v>
       </c>
       <c r="C57" t="n">
-        <v>421.0</v>
+        <v>528.0</v>
       </c>
       <c r="D57" t="n">
-        <v>17.0</v>
+        <v>48.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1289.0</v>
+        <v>2562.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4882.0</v>
+        <v>8195.0</v>
       </c>
       <c r="B58" t="n">
-        <v>3440.0</v>
+        <v>5321.0</v>
       </c>
       <c r="C58" t="n">
-        <v>457.0</v>
+        <v>598.0</v>
       </c>
       <c r="D58" t="n">
-        <v>18.0</v>
+        <v>54.0</v>
       </c>
       <c r="E58" t="n">
-        <v>1424.0</v>
+        <v>2820.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5380.0</v>
+        <v>8818.0</v>
       </c>
       <c r="B59" t="n">
-        <v>3762.0</v>
+        <v>5647.0</v>
       </c>
       <c r="C59" t="n">
-        <v>498.0</v>
+        <v>623.0</v>
       </c>
       <c r="D59" t="n">
-        <v>19.0</v>
+        <v>62.0</v>
       </c>
       <c r="E59" t="n">
-        <v>1599.0</v>
+        <v>3109.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5971.0</v>
+        <v>9463.0</v>
       </c>
       <c r="B60" t="n">
-        <v>4171.0</v>
+        <v>6031.0</v>
       </c>
       <c r="C60" t="n">
-        <v>591.0</v>
+        <v>645.0</v>
       </c>
       <c r="D60" t="n">
-        <v>24.0</v>
+        <v>65.0</v>
       </c>
       <c r="E60" t="n">
-        <v>1776.0</v>
+        <v>3367.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6565.0</v>
+        <v>10129.0</v>
       </c>
       <c r="B61" t="n">
-        <v>4571.0</v>
+        <v>6396.0</v>
       </c>
       <c r="C61" t="n">
-        <v>594.0</v>
+        <v>666.0</v>
       </c>
       <c r="D61" t="n">
-        <v>26.0</v>
+        <v>73.0</v>
       </c>
       <c r="E61" t="n">
-        <v>1968.0</v>
+        <v>3660.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7244.0</v>
+        <v>10873.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5025.0</v>
+        <v>6793.0</v>
       </c>
       <c r="C62" t="n">
-        <v>679.0</v>
+        <v>744.0</v>
       </c>
       <c r="D62" t="n">
-        <v>28.0</v>
+        <v>82.0</v>
       </c>
       <c r="E62" t="n">
-        <v>2191.0</v>
+        <v>3998.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results5.xlsx
+++ b/src/output/results5.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>80.0</v>
+        <v>305.0</v>
       </c>
       <c r="B1" t="n">
-        <v>80.0</v>
+        <v>305.0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82.0</v>
+        <v>311.0</v>
       </c>
       <c r="B2" t="n">
-        <v>82.0</v>
+        <v>311.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>85.0</v>
+        <v>340.0</v>
       </c>
       <c r="B3" t="n">
-        <v>85.0</v>
+        <v>340.0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>29.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89.0</v>
+        <v>370.0</v>
       </c>
       <c r="B4" t="n">
-        <v>89.0</v>
+        <v>370.0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>30.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98.0</v>
+        <v>403.0</v>
       </c>
       <c r="B5" t="n">
-        <v>98.0</v>
+        <v>403.0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.0</v>
+        <v>33.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105.0</v>
+        <v>424.0</v>
       </c>
       <c r="B6" t="n">
-        <v>105.0</v>
+        <v>424.0</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112.0</v>
+        <v>463.0</v>
       </c>
       <c r="B7" t="n">
-        <v>112.0</v>
+        <v>463.0</v>
       </c>
       <c r="C7" t="n">
-        <v>7.0</v>
+        <v>39.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,937 +465,2246 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>126.0</v>
+        <v>488.0</v>
       </c>
       <c r="B8" t="n">
-        <v>126.0</v>
+        <v>487.0</v>
       </c>
       <c r="C8" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>143.0</v>
+        <v>522.0</v>
       </c>
       <c r="B9" t="n">
-        <v>142.0</v>
+        <v>520.0</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0</v>
+        <v>34.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>155.0</v>
+        <v>558.0</v>
       </c>
       <c r="B10" t="n">
-        <v>154.0</v>
+        <v>551.0</v>
       </c>
       <c r="C10" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>165.0</v>
+        <v>598.0</v>
       </c>
       <c r="B11" t="n">
-        <v>164.0</v>
+        <v>590.0</v>
       </c>
       <c r="C11" t="n">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>182.0</v>
+        <v>638.0</v>
       </c>
       <c r="B12" t="n">
-        <v>178.0</v>
+        <v>624.0</v>
       </c>
       <c r="C12" t="n">
-        <v>17.0</v>
+        <v>40.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>202.0</v>
+        <v>672.0</v>
       </c>
       <c r="B13" t="n">
-        <v>195.0</v>
+        <v>649.0</v>
       </c>
       <c r="C13" t="n">
-        <v>20.0</v>
+        <v>34.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>220.0</v>
+        <v>715.0</v>
       </c>
       <c r="B14" t="n">
-        <v>207.0</v>
+        <v>673.0</v>
       </c>
       <c r="C14" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>12.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>245.0</v>
+        <v>768.0</v>
       </c>
       <c r="B15" t="n">
-        <v>229.0</v>
+        <v>708.0</v>
       </c>
       <c r="C15" t="n">
-        <v>25.0</v>
+        <v>53.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E15" t="n">
-        <v>15.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>268.0</v>
+        <v>823.0</v>
       </c>
       <c r="B16" t="n">
-        <v>250.0</v>
+        <v>748.0</v>
       </c>
       <c r="C16" t="n">
-        <v>23.0</v>
+        <v>55.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E16" t="n">
-        <v>17.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>292.0</v>
+        <v>879.0</v>
       </c>
       <c r="B17" t="n">
-        <v>272.0</v>
+        <v>790.0</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0</v>
+        <v>56.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E17" t="n">
-        <v>19.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>317.0</v>
+        <v>941.0</v>
       </c>
       <c r="B18" t="n">
-        <v>289.0</v>
+        <v>827.0</v>
       </c>
       <c r="C18" t="n">
-        <v>25.0</v>
+        <v>62.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E18" t="n">
-        <v>27.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>341.0</v>
+        <v>997.0</v>
       </c>
       <c r="B19" t="n">
-        <v>306.0</v>
+        <v>856.0</v>
       </c>
       <c r="C19" t="n">
-        <v>24.0</v>
+        <v>56.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.0</v>
+        <v>137.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>364.0</v>
+        <v>1074.0</v>
       </c>
       <c r="B20" t="n">
-        <v>320.0</v>
+        <v>897.0</v>
       </c>
       <c r="C20" t="n">
-        <v>23.0</v>
+        <v>77.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E20" t="n">
-        <v>43.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>383.0</v>
+        <v>1152.0</v>
       </c>
       <c r="B21" t="n">
-        <v>326.0</v>
+        <v>946.0</v>
       </c>
       <c r="C21" t="n">
-        <v>19.0</v>
+        <v>78.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E21" t="n">
-        <v>56.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>413.0</v>
+        <v>1230.0</v>
       </c>
       <c r="B22" t="n">
-        <v>349.0</v>
+        <v>992.0</v>
       </c>
       <c r="C22" t="n">
-        <v>30.0</v>
+        <v>78.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>455.0</v>
+        <v>1307.0</v>
       </c>
       <c r="B23" t="n">
-        <v>380.0</v>
+        <v>1040.0</v>
       </c>
       <c r="C23" t="n">
-        <v>42.0</v>
+        <v>77.0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" t="n">
-        <v>73.0</v>
+        <v>263.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>493.0</v>
+        <v>1409.0</v>
       </c>
       <c r="B24" t="n">
-        <v>396.0</v>
+        <v>1113.0</v>
       </c>
       <c r="C24" t="n">
-        <v>38.0</v>
+        <v>102.0</v>
       </c>
       <c r="D24" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" t="n">
-        <v>94.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>538.0</v>
+        <v>1504.0</v>
       </c>
       <c r="B25" t="n">
-        <v>428.0</v>
+        <v>1166.0</v>
       </c>
       <c r="C25" t="n">
-        <v>45.0</v>
+        <v>95.0</v>
       </c>
       <c r="D25" t="n">
         <v>4.0</v>
       </c>
       <c r="E25" t="n">
-        <v>106.0</v>
+        <v>334.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>592.0</v>
+        <v>1601.0</v>
       </c>
       <c r="B26" t="n">
-        <v>466.0</v>
+        <v>1213.0</v>
       </c>
       <c r="C26" t="n">
-        <v>54.0</v>
+        <v>97.0</v>
       </c>
       <c r="D26" t="n">
         <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>122.0</v>
+        <v>384.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>644.0</v>
+        <v>1709.0</v>
       </c>
       <c r="B27" t="n">
-        <v>494.0</v>
+        <v>1266.0</v>
       </c>
       <c r="C27" t="n">
-        <v>52.0</v>
+        <v>108.0</v>
       </c>
       <c r="D27" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" t="n">
-        <v>145.0</v>
+        <v>439.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>695.0</v>
+        <v>1814.0</v>
       </c>
       <c r="B28" t="n">
-        <v>529.0</v>
+        <v>1310.0</v>
       </c>
       <c r="C28" t="n">
-        <v>51.0</v>
+        <v>105.0</v>
       </c>
       <c r="D28" t="n">
         <v>5.0</v>
       </c>
       <c r="E28" t="n">
-        <v>161.0</v>
+        <v>499.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>745.0</v>
+        <v>1919.0</v>
       </c>
       <c r="B29" t="n">
+        <v>1360.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E29" t="n">
         <v>553.0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>185.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>806.0</v>
+        <v>2031.0</v>
       </c>
       <c r="B30" t="n">
-        <v>593.0</v>
+        <v>1428.0</v>
       </c>
       <c r="C30" t="n">
-        <v>61.0</v>
+        <v>112.0</v>
       </c>
       <c r="D30" t="n">
         <v>7.0</v>
       </c>
       <c r="E30" t="n">
-        <v>206.0</v>
+        <v>596.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>862.0</v>
+        <v>2160.0</v>
       </c>
       <c r="B31" t="n">
-        <v>617.0</v>
+        <v>1497.0</v>
       </c>
       <c r="C31" t="n">
-        <v>56.0</v>
+        <v>129.0</v>
       </c>
       <c r="D31" t="n">
         <v>7.0</v>
       </c>
       <c r="E31" t="n">
-        <v>238.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>948.0</v>
+        <v>2251.0</v>
       </c>
       <c r="B32" t="n">
-        <v>689.0</v>
+        <v>1537.0</v>
       </c>
       <c r="C32" t="n">
-        <v>86.0</v>
+        <v>91.0</v>
       </c>
       <c r="D32" t="n">
         <v>7.0</v>
       </c>
       <c r="E32" t="n">
-        <v>252.0</v>
+        <v>707.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1025.0</v>
+        <v>2347.0</v>
       </c>
       <c r="B33" t="n">
-        <v>738.0</v>
+        <v>1566.0</v>
       </c>
       <c r="C33" t="n">
-        <v>77.0</v>
+        <v>96.0</v>
       </c>
       <c r="D33" t="n">
         <v>7.0</v>
       </c>
       <c r="E33" t="n">
-        <v>280.0</v>
+        <v>774.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1108.0</v>
+        <v>2448.0</v>
       </c>
       <c r="B34" t="n">
-        <v>785.0</v>
+        <v>1582.0</v>
       </c>
       <c r="C34" t="n">
-        <v>83.0</v>
+        <v>101.0</v>
       </c>
       <c r="D34" t="n">
         <v>7.0</v>
       </c>
       <c r="E34" t="n">
-        <v>316.0</v>
+        <v>859.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1211.0</v>
+        <v>2564.0</v>
       </c>
       <c r="B35" t="n">
-        <v>854.0</v>
+        <v>1637.0</v>
       </c>
       <c r="C35" t="n">
-        <v>103.0</v>
+        <v>116.0</v>
       </c>
       <c r="D35" t="n">
         <v>8.0</v>
       </c>
       <c r="E35" t="n">
-        <v>349.0</v>
+        <v>919.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1322.0</v>
+        <v>2692.0</v>
       </c>
       <c r="B36" t="n">
-        <v>924.0</v>
+        <v>1680.0</v>
       </c>
       <c r="C36" t="n">
-        <v>111.0</v>
+        <v>128.0</v>
       </c>
       <c r="D36" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E36" t="n">
-        <v>390.0</v>
+        <v>1003.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1434.0</v>
+        <v>2812.0</v>
       </c>
       <c r="B37" t="n">
-        <v>993.0</v>
+        <v>1714.0</v>
       </c>
       <c r="C37" t="n">
-        <v>112.0</v>
+        <v>120.0</v>
       </c>
       <c r="D37" t="n">
         <v>9.0</v>
       </c>
       <c r="E37" t="n">
-        <v>432.0</v>
+        <v>1089.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1565.0</v>
+        <v>2928.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1081.0</v>
+        <v>1732.0</v>
       </c>
       <c r="C38" t="n">
-        <v>131.0</v>
+        <v>116.0</v>
       </c>
       <c r="D38" t="n">
         <v>9.0</v>
       </c>
       <c r="E38" t="n">
-        <v>475.0</v>
+        <v>1187.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1687.0</v>
+        <v>3076.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1159.0</v>
+        <v>1798.0</v>
       </c>
       <c r="C39" t="n">
-        <v>122.0</v>
+        <v>148.0</v>
       </c>
       <c r="D39" t="n">
         <v>10.0</v>
       </c>
       <c r="E39" t="n">
-        <v>518.0</v>
+        <v>1268.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1818.0</v>
+        <v>3211.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1240.0</v>
+        <v>1826.0</v>
       </c>
       <c r="C40" t="n">
-        <v>131.0</v>
+        <v>135.0</v>
       </c>
       <c r="D40" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="E40" t="n">
-        <v>566.0</v>
+        <v>1374.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2007.0</v>
+        <v>3370.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1380.0</v>
+        <v>1888.0</v>
       </c>
       <c r="C41" t="n">
-        <v>189.0</v>
+        <v>159.0</v>
       </c>
       <c r="D41" t="n">
         <v>12.0</v>
       </c>
       <c r="E41" t="n">
-        <v>615.0</v>
+        <v>1470.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2200.0</v>
+        <v>3540.0</v>
       </c>
       <c r="B42" t="n">
-        <v>1520.0</v>
+        <v>1958.0</v>
       </c>
       <c r="C42" t="n">
-        <v>193.0</v>
+        <v>170.0</v>
       </c>
       <c r="D42" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="E42" t="n">
-        <v>668.0</v>
+        <v>1569.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2396.0</v>
+        <v>3746.0</v>
       </c>
       <c r="B43" t="n">
-        <v>1638.0</v>
+        <v>2054.0</v>
       </c>
       <c r="C43" t="n">
-        <v>196.0</v>
+        <v>206.0</v>
       </c>
       <c r="D43" t="n">
         <v>13.0</v>
       </c>
       <c r="E43" t="n">
-        <v>745.0</v>
+        <v>1679.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2590.0</v>
+        <v>3972.0</v>
       </c>
       <c r="B44" t="n">
-        <v>1766.0</v>
+        <v>2185.0</v>
       </c>
       <c r="C44" t="n">
-        <v>194.0</v>
+        <v>226.0</v>
       </c>
       <c r="D44" t="n">
         <v>14.0</v>
       </c>
       <c r="E44" t="n">
-        <v>810.0</v>
+        <v>1773.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2807.0</v>
+        <v>4202.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1894.0</v>
+        <v>2301.0</v>
       </c>
       <c r="C45" t="n">
-        <v>217.0</v>
+        <v>230.0</v>
       </c>
       <c r="D45" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="E45" t="n">
-        <v>897.0</v>
+        <v>1884.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3061.0</v>
+        <v>4438.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2065.0</v>
+        <v>2418.0</v>
       </c>
       <c r="C46" t="n">
-        <v>254.0</v>
+        <v>236.0</v>
       </c>
       <c r="D46" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="E46" t="n">
-        <v>979.0</v>
+        <v>2002.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3358.0</v>
+        <v>4712.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2274.0</v>
+        <v>2585.0</v>
       </c>
       <c r="C47" t="n">
-        <v>297.0</v>
+        <v>274.0</v>
       </c>
       <c r="D47" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1066.0</v>
+        <v>2108.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3637.0</v>
+        <v>5024.0</v>
       </c>
       <c r="B48" t="n">
-        <v>2444.0</v>
+        <v>2771.0</v>
       </c>
       <c r="C48" t="n">
-        <v>279.0</v>
+        <v>312.0</v>
       </c>
       <c r="D48" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1175.0</v>
+        <v>2234.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3974.0</v>
+        <v>5360.0</v>
       </c>
       <c r="B49" t="n">
-        <v>2672.0</v>
+        <v>2985.0</v>
       </c>
       <c r="C49" t="n">
-        <v>337.0</v>
+        <v>336.0</v>
       </c>
       <c r="D49" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1282.0</v>
+        <v>2356.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4319.0</v>
+        <v>5762.0</v>
       </c>
       <c r="B50" t="n">
-        <v>2893.0</v>
+        <v>3234.0</v>
       </c>
       <c r="C50" t="n">
-        <v>345.0</v>
+        <v>402.0</v>
       </c>
       <c r="D50" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1404.0</v>
+        <v>2507.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4726.0</v>
+        <v>6155.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3151.0</v>
+        <v>3493.0</v>
       </c>
       <c r="C51" t="n">
-        <v>407.0</v>
+        <v>393.0</v>
       </c>
       <c r="D51" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1553.0</v>
+        <v>2641.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5133.0</v>
+        <v>6573.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3429.0</v>
+        <v>3768.0</v>
       </c>
       <c r="C52" t="n">
-        <v>407.0</v>
+        <v>418.0</v>
       </c>
       <c r="D52" t="n">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1675.0</v>
+        <v>2783.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5600.0</v>
+        <v>7067.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3742.0</v>
+        <v>4110.0</v>
       </c>
       <c r="C53" t="n">
-        <v>467.0</v>
+        <v>494.0</v>
       </c>
       <c r="D53" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1827.0</v>
+        <v>2930.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6037.0</v>
+        <v>7602.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4029.0</v>
+        <v>4468.0</v>
       </c>
       <c r="C54" t="n">
-        <v>437.0</v>
+        <v>535.0</v>
       </c>
       <c r="D54" t="n">
-        <v>33.0</v>
+        <v>28.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1975.0</v>
+        <v>3106.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6519.0</v>
+        <v>8114.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4316.0</v>
+        <v>4805.0</v>
       </c>
       <c r="C55" t="n">
-        <v>482.0</v>
+        <v>512.0</v>
       </c>
       <c r="D55" t="n">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="E55" t="n">
-        <v>2163.0</v>
+        <v>3278.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7069.0</v>
+        <v>8713.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4668.0</v>
+        <v>5200.0</v>
       </c>
       <c r="C56" t="n">
-        <v>550.0</v>
+        <v>599.0</v>
       </c>
       <c r="D56" t="n">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
       <c r="E56" t="n">
-        <v>2357.0</v>
+        <v>3480.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7597.0</v>
+        <v>9291.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4987.0</v>
+        <v>5545.0</v>
       </c>
       <c r="C57" t="n">
-        <v>528.0</v>
+        <v>578.0</v>
       </c>
       <c r="D57" t="n">
-        <v>48.0</v>
+        <v>33.0</v>
       </c>
       <c r="E57" t="n">
-        <v>2562.0</v>
+        <v>3713.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8195.0</v>
+        <v>9922.0</v>
       </c>
       <c r="B58" t="n">
-        <v>5321.0</v>
+        <v>5914.0</v>
       </c>
       <c r="C58" t="n">
-        <v>598.0</v>
+        <v>631.0</v>
       </c>
       <c r="D58" t="n">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
       <c r="E58" t="n">
-        <v>2820.0</v>
+        <v>3972.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8818.0</v>
+        <v>10613.0</v>
       </c>
       <c r="B59" t="n">
-        <v>5647.0</v>
+        <v>6327.0</v>
       </c>
       <c r="C59" t="n">
-        <v>623.0</v>
+        <v>691.0</v>
       </c>
       <c r="D59" t="n">
-        <v>62.0</v>
+        <v>43.0</v>
       </c>
       <c r="E59" t="n">
-        <v>3109.0</v>
+        <v>4243.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9463.0</v>
+        <v>11347.0</v>
       </c>
       <c r="B60" t="n">
-        <v>6031.0</v>
+        <v>6797.0</v>
       </c>
       <c r="C60" t="n">
-        <v>645.0</v>
+        <v>734.0</v>
       </c>
       <c r="D60" t="n">
-        <v>65.0</v>
+        <v>44.0</v>
       </c>
       <c r="E60" t="n">
-        <v>3367.0</v>
+        <v>4506.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10129.0</v>
+        <v>12177.0</v>
       </c>
       <c r="B61" t="n">
-        <v>6396.0</v>
+        <v>7312.0</v>
       </c>
       <c r="C61" t="n">
-        <v>666.0</v>
+        <v>830.0</v>
       </c>
       <c r="D61" t="n">
-        <v>73.0</v>
+        <v>48.0</v>
       </c>
       <c r="E61" t="n">
-        <v>3660.0</v>
+        <v>4817.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10873.0</v>
+        <v>13060.0</v>
       </c>
       <c r="B62" t="n">
-        <v>6793.0</v>
+        <v>7849.0</v>
       </c>
       <c r="C62" t="n">
-        <v>744.0</v>
+        <v>883.0</v>
       </c>
       <c r="D62" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5160.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>13976.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8387.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>916.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5533.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>14956.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>8973.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>980.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5924.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>15981.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9570.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1025.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6348.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>17071.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10174.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>6828.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2170.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>733.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1413.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2212.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1451.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2255.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>730.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2286.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>714.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1546.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2327.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>708.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1591.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2362.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1629.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2410.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1674.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2451.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1717.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2489.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>709.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1749.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2537.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>715.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1791.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2572.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1831.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2627.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1871.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2671.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1918.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2725.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>735.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1954.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2768.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>742.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1990.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2811.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2036.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2868.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>758.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2072.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2926.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>781.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2107.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2971.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>782.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2150.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3018.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>789.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2190.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>3074.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>793.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2242.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3139.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>811.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2289.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3199.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>825.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2335.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3267.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>849.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2379.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3357.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>889.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2429.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3419.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>904.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2476.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3501.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>934.0</v>
+      </c>
+      <c r="C93" t="n">
         <v>82.0</v>
       </c>
-      <c r="E62" t="n">
-        <v>3998.0</v>
+      <c r="D93" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2527.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3573.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>958.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2574.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3656.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1005.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2610.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3734.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1034.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2659.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3807.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1053.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2713.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3908.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2766.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>4005.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1143.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2820.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>4102.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1188.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2872.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>4184.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1213.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2929.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>4297.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1262.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2993.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4391.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1284.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3064.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>4501.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1317.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3140.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4608.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1359.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3204.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>4727.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1403.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3278.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>4834.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1430.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3355.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4965.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1483.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3432.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>5081.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1522.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3507.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>5208.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1566.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3590.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>5350.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1623.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3674.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>5490.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1683.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3753.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>5610.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3854.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>5759.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1750.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3951.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>5936.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1818.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4059.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>6128.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1903.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4164.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>6295.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4272.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>6460.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4388.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>6642.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2069.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4508.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>6845.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2157.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4622.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>7025.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2226.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4730.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>7253.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2306.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4877.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>7448.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2379.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4999.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>7680.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2469.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5141.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>7919.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2570.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5276.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>8147.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2670.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5403.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>8399.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2776.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5548.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>8675.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2901.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5697.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>8984.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3030.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5873.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>9311.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3165.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6061.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>9643.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3325.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6230.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9992.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3492.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6410.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>10305.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3606.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6606.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>10658.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3726.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6837.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>11036.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3889.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7050.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>11428.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4037.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7290.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>11837.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4227.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>7503.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>12245.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4386.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>7749.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>12662.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4559.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7989.0</v>
       </c>
     </row>
   </sheetData>
